--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -171,6 +171,54 @@
   </si>
   <si>
     <t xml:space="preserve">ADD ADDITIONAL LANGUAGE HERE (1 TO 3 CAPITAL LETTERS) - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789 :APM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SomeText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SomeText&lt;value&gt;</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1458,9 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4"/>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1639,20 +1689,48 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1"/>
-    <row r="5" spans="2:10" ht="15" customHeight="1"/>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="75">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -171,6 +171,75 @@
   </si>
   <si>
     <t xml:space="preserve">ADD ADDITIONAL LANGUAGE HERE (1 TO 3 CAPITAL LETTERS) - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">абвгдежзиклмнопрстуфхцчшщъыьэюя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А-Я,а-я,0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А-Я,а-я,0-9,a-z,A-Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инициализация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инициализация...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1407,8 +1476,12 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" s="4" t="s">
@@ -1496,6 +1569,25 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1639,20 +1731,78 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1"/>
-    <row r="5" spans="2:10" ht="15" customHeight="1"/>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="76">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">()-</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
         <v>65</v>
